--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>30548.77567655732</v>
+        <v>21362.71399358858</v>
       </c>
       <c r="R2">
-        <v>274938.9810890158</v>
+        <v>192264.4259422972</v>
       </c>
       <c r="S2">
-        <v>0.1398281394212914</v>
+        <v>0.1141518365276477</v>
       </c>
       <c r="T2">
-        <v>0.1398281394212915</v>
+        <v>0.1141518365276477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>33587.2940542426</v>
+        <v>24749.49444164217</v>
       </c>
       <c r="R3">
-        <v>302285.6464881834</v>
+        <v>222745.4499747795</v>
       </c>
       <c r="S3">
-        <v>0.1537360739273271</v>
+        <v>0.1322491254852809</v>
       </c>
       <c r="T3">
-        <v>0.1537360739273271</v>
+        <v>0.1322491254852809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>18616.839727245</v>
+        <v>18785.91906653784</v>
       </c>
       <c r="R4">
-        <v>167551.557545205</v>
+        <v>169073.2715988405</v>
       </c>
       <c r="S4">
-        <v>0.08521317150404417</v>
+        <v>0.1003827118103366</v>
       </c>
       <c r="T4">
-        <v>0.08521317150404417</v>
+        <v>0.1003827118103366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>13548.42263295489</v>
+        <v>9641.921362864394</v>
       </c>
       <c r="R5">
-        <v>121935.803696594</v>
+        <v>86777.29226577953</v>
       </c>
       <c r="S5">
-        <v>0.06201396576142234</v>
+        <v>0.051521685472944</v>
       </c>
       <c r="T5">
-        <v>0.06201396576142235</v>
+        <v>0.051521685472944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>30210.62228413067</v>
+        <v>28670.21648477366</v>
       </c>
       <c r="R6">
-        <v>271895.6005571761</v>
+        <v>258031.948362963</v>
       </c>
       <c r="S6">
-        <v>0.1382803405764985</v>
+        <v>0.1531995357127554</v>
       </c>
       <c r="T6">
-        <v>0.1382803405764985</v>
+        <v>0.1531995357127554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>33215.5064072637</v>
@@ -883,10 +883,10 @@
         <v>298939.5576653733</v>
       </c>
       <c r="S7">
-        <v>0.1520343240605797</v>
+        <v>0.1774873294995639</v>
       </c>
       <c r="T7">
-        <v>0.1520343240605797</v>
+        <v>0.1774873294995639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>18410.76444695605</v>
+        <v>25211.9822726982</v>
       </c>
       <c r="R8">
-        <v>165696.8800226044</v>
+        <v>226907.8404542838</v>
       </c>
       <c r="S8">
-        <v>0.08426992181938862</v>
+        <v>0.1347204329840649</v>
       </c>
       <c r="T8">
-        <v>0.08426992181938861</v>
+        <v>0.1347204329840649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>13398.45115377449</v>
+        <v>12940.11486019289</v>
       </c>
       <c r="R9">
-        <v>120586.0603839704</v>
+        <v>116461.033741736</v>
       </c>
       <c r="S9">
-        <v>0.061327514915664</v>
+        <v>0.06914560933657794</v>
       </c>
       <c r="T9">
-        <v>0.061327514915664</v>
+        <v>0.06914560933657796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>8520.66936954976</v>
+        <v>3522.226479161676</v>
       </c>
       <c r="R10">
-        <v>76686.02432594783</v>
+        <v>31700.03831245508</v>
       </c>
       <c r="S10">
-        <v>0.03900088688275703</v>
+        <v>0.0188210459299921</v>
       </c>
       <c r="T10">
-        <v>0.03900088688275703</v>
+        <v>0.0188210459299921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>9368.173398636751</v>
+        <v>4080.629675348338</v>
       </c>
       <c r="R11">
-        <v>84313.56058773075</v>
+        <v>36725.66707813504</v>
       </c>
       <c r="S11">
-        <v>0.04288009018681026</v>
+        <v>0.02180487796494546</v>
       </c>
       <c r="T11">
-        <v>0.04288009018681025</v>
+        <v>0.02180487796494546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>5192.611897159673</v>
+        <v>3097.371503986166</v>
       </c>
       <c r="R12">
-        <v>46733.50707443706</v>
+        <v>27876.34353587549</v>
       </c>
       <c r="S12">
-        <v>0.0237676713464454</v>
+        <v>0.01655082990366006</v>
       </c>
       <c r="T12">
-        <v>0.0237676713464454</v>
+        <v>0.01655082990366006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>3778.928195244226</v>
+        <v>1589.733904805731</v>
       </c>
       <c r="R13">
-        <v>34010.35375719803</v>
+        <v>14307.60514325158</v>
       </c>
       <c r="S13">
-        <v>0.01729694519159227</v>
+        <v>0.008494756091304985</v>
       </c>
       <c r="T13">
-        <v>0.01729694519159227</v>
+        <v>0.008494756091304985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>24.322681042016</v>
+        <v>78.85397151732334</v>
       </c>
       <c r="R14">
-        <v>218.904129378144</v>
+        <v>709.6857436559101</v>
       </c>
       <c r="S14">
-        <v>0.0001113300013019013</v>
+        <v>0.0004213568401890686</v>
       </c>
       <c r="T14">
-        <v>0.0001113300013019013</v>
+        <v>0.0004213568401890686</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>26.741924095264</v>
+        <v>91.35524308171335</v>
       </c>
       <c r="R15">
-        <v>240.677316857376</v>
+        <v>822.1971877354201</v>
       </c>
       <c r="S15">
-        <v>0.000122403383048036</v>
+        <v>0.0004881574867939085</v>
       </c>
       <c r="T15">
-        <v>0.0001224033830480359</v>
+        <v>0.0004881574867939085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>14.822572907352</v>
+        <v>69.34251553637334</v>
       </c>
       <c r="R16">
-        <v>133.403156166168</v>
+        <v>624.08263982736</v>
       </c>
       <c r="S16">
-        <v>6.784601821741635E-05</v>
+        <v>0.0003705322975488788</v>
       </c>
       <c r="T16">
-        <v>6.784601821741633E-05</v>
+        <v>0.0003705322975488788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>10.78714138376</v>
+        <v>35.590224760195</v>
       </c>
       <c r="R17">
-        <v>97.08427245384001</v>
+        <v>320.312022841755</v>
       </c>
       <c r="S17">
-        <v>4.937500361178334E-05</v>
+        <v>0.0001901766563942822</v>
       </c>
       <c r="T17">
-        <v>4.937500361178334E-05</v>
+        <v>0.0001901766563942822</v>
       </c>
     </row>
   </sheetData>
